--- a/data/interim/P2/P02_003.xlsx
+++ b/data/interim/P2/P02_003.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\index-2020-3\data\interim\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CD658-D64C-4E83-B609-155A7CA062F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703CEEA-5076-498E-9AEC-C4C9CA028722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="4704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3660" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,10 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +439,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +447,7 @@
     <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -452,7 +460,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -461,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>145205.42000000001</v>
+        <v>26119.66</v>
       </c>
       <c r="C2">
-        <v>63898.42</v>
-      </c>
-      <c r="D2">
-        <v>58394.97</v>
+        <v>118887.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>198.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>37639.769999999997</v>
+        <v>27435.71</v>
       </c>
       <c r="C3">
-        <v>17023.25</v>
-      </c>
-      <c r="D3">
-        <v>7073.23</v>
+        <v>1245.83</v>
+      </c>
+      <c r="D3" s="1">
+        <v>972.13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,13 +497,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>74275.360000000001</v>
+        <v>46346.6</v>
       </c>
       <c r="C4">
-        <v>23436.240000000002</v>
-      </c>
-      <c r="D4">
-        <v>18904.060000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27928.76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -503,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>40487.910000000003</v>
+        <v>39664.54</v>
       </c>
       <c r="C5">
-        <v>24039.79</v>
-      </c>
-      <c r="D5">
-        <v>22312.46</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>823.37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,13 +525,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>26811.78</v>
+        <v>10664.36</v>
       </c>
       <c r="C6">
-        <v>10720.37</v>
-      </c>
-      <c r="D6">
-        <v>6023.81</v>
+        <v>16054.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>93.17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,13 +539,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>21467.03</v>
+        <v>21358.7</v>
       </c>
       <c r="C7">
-        <v>6062.74</v>
-      </c>
-      <c r="D7">
-        <v>5436.56</v>
+        <v>37.74</v>
+      </c>
+      <c r="D7" s="1">
+        <v>70.59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -545,13 +553,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>66361.039999999994</v>
+        <v>57401.11</v>
       </c>
       <c r="C8">
-        <v>16246.24</v>
-      </c>
-      <c r="D8">
-        <v>15450.65</v>
+        <v>2019</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6940.93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,13 +567,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>100707.62</v>
+        <v>88226.12</v>
       </c>
       <c r="C9">
-        <v>20493.45</v>
-      </c>
-      <c r="D9">
-        <v>9211.18</v>
+        <v>12325.87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>155.63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -573,13 +581,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>42298.45</v>
+        <v>42180.66</v>
       </c>
       <c r="C10">
-        <v>13730.17</v>
+        <v>115.49</v>
       </c>
       <c r="D10" s="1">
-        <v>11514.47</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,13 +595,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>13161.5</v>
+        <v>12607.16</v>
       </c>
       <c r="C11">
-        <v>9693.4500000000007</v>
-      </c>
-      <c r="D11">
-        <v>9609.68</v>
+        <v>425.02</v>
+      </c>
+      <c r="D11" s="1">
+        <v>129.32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>217682.52</v>
+        <v>217037.44</v>
       </c>
       <c r="C12">
-        <v>29915.88</v>
-      </c>
-      <c r="D12">
-        <v>27425.43</v>
+        <v>444.96</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200.12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,13 +623,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>53554.7</v>
+        <v>52495.34</v>
       </c>
       <c r="C13">
-        <v>13826.57</v>
-      </c>
-      <c r="D13">
-        <v>13823.55</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1059.3599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,13 +637,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>107080.81</v>
+        <v>104144.31</v>
       </c>
       <c r="C14">
-        <v>21183.78</v>
-      </c>
-      <c r="D14">
-        <v>16547.580000000002</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2880.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -643,13 +651,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>46672.05</v>
+        <v>37893.67</v>
       </c>
       <c r="C15">
-        <v>11059.37</v>
-      </c>
-      <c r="D15">
-        <v>10788.62</v>
+        <v>926.04</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7852.34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,13 +665,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>19699.38</v>
+        <v>18304.89</v>
       </c>
       <c r="C16">
-        <v>5401.6</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4926.51</v>
+        <v>232.34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1162.1500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,13 +679,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>16682.52</v>
+        <v>9680.43</v>
       </c>
       <c r="C17">
-        <v>7918.61</v>
-      </c>
-      <c r="D17">
-        <v>7659.63</v>
+        <v>5663.68</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1338.41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -685,13 +693,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>11485.33</v>
+        <v>7737.52</v>
       </c>
       <c r="C18">
-        <v>8296.43</v>
-      </c>
-      <c r="D18">
-        <v>7675.29</v>
+        <v>3747.71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,13 +707,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>30621.71</v>
+        <v>28130.07</v>
       </c>
       <c r="C19">
-        <v>10423.700000000001</v>
-      </c>
-      <c r="D19">
-        <v>8499.85</v>
+        <v>1650.26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>841.38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,13 +721,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>23208.87</v>
+        <v>21944.45</v>
       </c>
       <c r="C20">
-        <v>18531.61</v>
-      </c>
-      <c r="D20" s="2">
-        <v>18138.22</v>
+        <v>1260.9100000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,13 +735,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>39643.980000000003</v>
+        <v>17906.23</v>
       </c>
       <c r="C21">
-        <v>3699.59</v>
-      </c>
-      <c r="D21">
-        <v>3373</v>
+        <v>21689.96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>47.79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,13 +749,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>41693.910000000003</v>
+        <v>32490.68</v>
       </c>
       <c r="C22">
-        <v>13086.722</v>
-      </c>
-      <c r="D22">
-        <v>12793.562000000002</v>
+        <v>9203.23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,13 +763,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>31454.05</v>
+        <v>30072.97</v>
       </c>
       <c r="C23">
-        <v>9520.7000000000007</v>
-      </c>
-      <c r="D23">
-        <v>8663.9500000000007</v>
+        <v>1367.83</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13.25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,13 +777,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>24960.97</v>
+        <v>20938.28</v>
       </c>
       <c r="C24">
-        <v>20402.169999999998</v>
-      </c>
-      <c r="D24">
-        <v>18872.22</v>
+        <v>3973.21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>49.48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,16 +791,17 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>237399.07</v>
+        <v>225747.19</v>
       </c>
       <c r="C25">
-        <v>34658.04</v>
-      </c>
-      <c r="D25">
-        <v>32406.43</v>
+        <v>3117.57</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8534.31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>